--- a/biology/Zoologie/Raymond_Cayouette/Raymond_Cayouette.xlsx
+++ b/biology/Zoologie/Raymond_Cayouette/Raymond_Cayouette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Cayouette (1916-2006) est un ornithologue québécois et le fondateur du Club ornithologique de Québec.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le jour de Noël 1925 qu'il se prend de passion pour les oiseaux après avoir observé une bande de Gros-becs errants dans la cour familiale. Il reçoit en cadeau de son père le premier guide ornithologique québécois, le seul disponible en français, L'Inventaire des oiseaux du Québec, publié en 1906 par Charles-Eusèbe Dionne.
 En 1943, il instigue le premier recensement ornithologique de Noël à Québec, qui permet de recenser 10 espèces à l'aide de deux collègues. Cette tradition a toujours lieu annuellement, et a attiré en 2005 plus de 100 ornithologues qui ont recensé l'avifaune d'un territoire de 12 km de rayon de la région de Québec, (19 166 spécimens de 60 espèces).
